--- a/ChisMethods/ChisMethods/plots/krank-nikolson_hLess_tauLess.xlsx
+++ b/ChisMethods/ChisMethods/plots/krank-nikolson_hLess_tauLess.xlsx
@@ -94,17 +94,7 @@
       <c:thickness val="0"/>
     </c:backWall>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.4442526875921333E-2"/>
-          <c:y val="3.0372096172228642E-2"/>
-          <c:w val="0.82944558300075499"/>
-          <c:h val="0.89001377257217584"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:surface3DChart>
         <c:wireframe val="0"/>
         <c:ser>
@@ -5817,12 +5807,12 @@
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="169674240"/>
-        <c:axId val="169676160"/>
-        <c:axId val="155992960"/>
+        <c:axId val="189555840"/>
+        <c:axId val="65660032"/>
+        <c:axId val="65637888"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="169674240"/>
+        <c:axId val="189555840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5832,7 +5822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169676160"/>
+        <c:crossAx val="65660032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5840,7 +5830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169676160"/>
+        <c:axId val="65660032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5851,12 +5841,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169674240"/>
+        <c:crossAx val="189555840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="155992960"/>
+        <c:axId val="65637888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5865,7 +5855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169676160"/>
+        <c:crossAx val="65660032"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -5900,20 +5890,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6221,7 +6211,7 @@
   <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
